--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/common_good_pro.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/common_good_pro.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
   </si>
   <si>
     <t>arg33090</t>
@@ -42,7 +42,7 @@
     <t>arg33160</t>
   </si>
   <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0</t>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6</t>
   </si>
   <si>
     <t>arg33155</t>
@@ -51,13 +51,13 @@
     <t>arg33114</t>
   </si>
   <si>
-    <t>318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
+    <t>14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg33177</t>
   </si>
   <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
   </si>
   <si>
     <t>arg33092</t>
@@ -69,25 +69,25 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
   </si>
   <si>
     <t>arg33147</t>
   </si>
   <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
   </si>
   <si>
     <t>arg33156</t>
   </si>
   <si>
-    <t>393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
+    <t>17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
   </si>
   <si>
     <t>arg33135</t>
   </si>
   <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57</t>
   </si>
   <si>
     <t>arg33047</t>
@@ -96,16 +96,16 @@
     <t>arg33061</t>
   </si>
   <si>
-    <t>479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
   </si>
   <si>
     <t>arg33103</t>
   </si>
   <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
   </si>
   <si>
     <t>arg33129</t>
@@ -114,13 +114,13 @@
     <t>arg33110</t>
   </si>
   <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
   </si>
   <si>
     <t>arg33133</t>
   </si>
   <si>
-    <t>316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
   </si>
   <si>
     <t>arg33113</t>
@@ -129,31 +129,31 @@
     <t>arg33075</t>
   </si>
   <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
   </si>
   <si>
     <t>arg33131</t>
   </si>
   <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
   </si>
   <si>
     <t>arg33100</t>
   </si>
   <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
   </si>
   <si>
     <t>arg33134</t>
   </si>
   <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2</t>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44</t>
   </si>
   <si>
     <t>arg33176</t>
@@ -162,40 +162,40 @@
     <t>arg33141</t>
   </si>
   <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
   </si>
   <si>
     <t>arg33162</t>
   </si>
   <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg33089</t>
   </si>
   <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
   </si>
   <si>
     <t>arg33136</t>
   </si>
   <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33</t>
+  </si>
+  <si>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
   </si>
   <si>
     <t>arg33178</t>
   </si>
   <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
   </si>
   <si>
     <t>back</t>
@@ -207,64 +207,64 @@
     <t>elieving in the lineman, and the receiver believing in the quarterback to make a good pass. So we need each other and depend on each other to be great.</t>
   </si>
   <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
   </si>
   <si>
     <t>arg33049</t>
   </si>
   <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
   </si>
   <si>
     <t>arg33082</t>
   </si>
   <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0</t>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6</t>
   </si>
   <si>
     <t>arg33122</t>
   </si>
   <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79</t>
+  </si>
+  <si>
+    <t>14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
   </si>
   <si>
     <t>to</t>
@@ -276,19 +276,19 @@
     <t>great.</t>
   </si>
   <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
   </si>
   <si>
     <t>reat</t>
@@ -297,40 +297,40 @@
     <t>.</t>
   </si>
   <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
   </si>
   <si>
     <t>arg33074</t>
   </si>
   <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
   </si>
   <si>
     <t>ange</t>
@@ -342,13 +342,13 @@
     <t>o yourself.</t>
   </si>
   <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
   </si>
   <si>
     <t>arg33099</t>
   </si>
   <si>
-    <t>351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>hey</t>
@@ -360,40 +360,40 @@
     <t>d &lt;br/&gt; (or) WHAT they gave-up to be there!</t>
   </si>
   <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
+  </si>
+  <si>
+    <t>17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64,45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
   </si>
   <si>
     <t>ck t</t>
@@ -405,25 +405,25 @@
     <t>you helping you better yourself.</t>
   </si>
   <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
   </si>
   <si>
     <t>arg33119</t>
   </si>
   <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>e-up</t>
@@ -432,13 +432,13 @@
     <t>o be there!</t>
   </si>
   <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57</t>
   </si>
   <si>
     <t>s ta</t>
@@ -450,13 +450,13 @@
     <t>it to the next level.</t>
   </si>
   <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
   </si>
   <si>
     <t>suit</t>
@@ -468,28 +468,28 @@
     <t>ou are just helping yourself. If we all just helped ourselves where would our world be? We all depend on others for help at some point. This world should be about others, not just me.</t>
   </si>
   <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0</t>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71,17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71</t>
   </si>
   <si>
     <t>u ca</t>
@@ -501,19 +501,19 @@
     <t>also get recognition for yourself as a reward for your help.</t>
   </si>
   <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>be t</t>
@@ -525,22 +525,22 @@
     <t>re!</t>
   </si>
   <si>
-    <t>393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0,406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
+    <t>17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71,16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
   </si>
   <si>
     <t>if</t>
@@ -552,10 +552,10 @@
     <t>vancing the common good doesnt sound appealing to you. Their are plenty of jobs that do just that.</t>
   </si>
   <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
   </si>
   <si>
     <t>your</t>
@@ -567,7 +567,7 @@
     <t>lf.</t>
   </si>
   <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
   </si>
   <si>
     <t>some</t>
@@ -579,16 +579,16 @@
     <t>ing good will also come back to you helping you better yourself.</t>
   </si>
   <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33</t>
+  </si>
+  <si>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
   </si>
   <si>
     <t>nce.</t>
@@ -600,28 +600,28 @@
     <t>o when helping out others, you make others feel good as well as yourself.</t>
   </si>
   <si>
-    <t>318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43,26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>they</t>
@@ -633,16 +633,16 @@
     <t>ave-up to be there!</t>
   </si>
   <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
   </si>
   <si>
     <t>yone</t>
@@ -654,7 +654,7 @@
     <t>lse in the whole world.</t>
   </si>
   <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0</t>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6</t>
   </si>
   <si>
     <t>tea</t>
@@ -666,19 +666,19 @@
     <t>them what they are capable of,to beleive in themselfs that they can do as the things wealthy people does.</t>
   </si>
   <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2</t>
-  </si>
-  <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
+  </si>
+  <si>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44</t>
+  </si>
+  <si>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
   </si>
   <si>
     <t>ey a</t>
@@ -690,55 +690,55 @@
     <t>important than anyone else in the whole world.</t>
   </si>
   <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2</t>
-  </si>
-  <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44</t>
+  </si>
+  <si>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
+  </si>
+  <si>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
   </si>
   <si>
     <t>g in</t>
@@ -747,40 +747,40 @@
     <t>he quarterback to make a good pass. So we need each other and depend on each other to be great.</t>
   </si>
   <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0</t>
-  </si>
-  <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64,17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
   </si>
   <si>
     <t>a p</t>
@@ -792,7 +792,7 @@
     <t>son that's not liked and when alone and not liked by others becomes lonely.</t>
   </si>
   <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
   </si>
   <si>
     <t>got</t>
@@ -804,43 +804,43 @@
     <t>n "us" into some not so happy predicaments.</t>
   </si>
   <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
+  </si>
+  <si>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57</t>
   </si>
   <si>
     <t>hat</t>
@@ -852,28 +852,28 @@
     <t>u know. So the learning or society process can advance. So therefore you let others take it to the next level.</t>
   </si>
   <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57</t>
   </si>
   <si>
     <t>the</t>
@@ -885,16 +885,16 @@
     <t>earning or society process can advance. So therefore you let others take it to the next level.</t>
   </si>
   <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
   </si>
   <si>
     <t>g go</t>
@@ -906,40 +906,40 @@
     <t>will also come back to you helping you better yourself.</t>
   </si>
   <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>ight beemed from selfishness?? &lt;br/&gt; No matter where a person is in thier life.... &lt;br/&gt; Remember, you MAY NOT know what they did &lt;br/&gt; (or) WHAT they gave-up to be there!</t>
   </si>
   <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
-  </si>
-  <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
+  </si>
+  <si>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
+  </si>
+  <si>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71,13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
   </si>
   <si>
     <t>make</t>
@@ -951,25 +951,25 @@
     <t>good pass. So we need each other and depend on each other to be great.</t>
   </si>
   <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88</t>
+  </si>
+  <si>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
   </si>
   <si>
     <t>e an</t>
@@ -981,7 +981,7 @@
     <t>not liked by others becomes lonely.</t>
   </si>
   <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0</t>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33</t>
   </si>
   <si>
     <t>thi</t>
@@ -993,19 +993,19 @@
     <t>about yourself later then to put yourself first.</t>
   </si>
   <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57</t>
   </si>
   <si>
     <t>t to</t>
@@ -1014,13 +1014,13 @@
     <t>he next level.</t>
   </si>
   <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
   </si>
   <si>
     <t>rew</t>
@@ -1032,7 +1032,7 @@
     <t>ds, fame, or just having the satisfaction of knowing that you have importance. So when helping out others, you make others feel good as well as yourself.</t>
   </si>
   <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>w wh</t>
@@ -1044,22 +1044,22 @@
     <t>they did &lt;br/&gt; (or) WHAT they gave-up to be there!</t>
   </si>
   <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
-  </si>
-  <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0</t>
-  </si>
-  <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
+  </si>
+  <si>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6</t>
+  </si>
+  <si>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>&lt;br/</t>
@@ -1071,37 +1071,37 @@
     <t>blinded by the light beemed from selfishness?? &lt;br/&gt; No matter where a person is in thier life.... &lt;br/&gt; Remember, you MAY NOT know what they did &lt;br/&gt; (or) WHAT they gave-up to be there!</t>
   </si>
   <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36</t>
+  </si>
+  <si>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79</t>
+  </si>
+  <si>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33</t>
+  </si>
+  <si>
+    <t>17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
   </si>
   <si>
     <t>qua</t>
@@ -1113,13 +1113,13 @@
     <t>erback to make a good pass. So we need each other and depend on each other to be great.</t>
   </si>
   <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
   </si>
   <si>
     <t>ing</t>
@@ -1131,16 +1131,16 @@
     <t>r the quarterback, quarterback believing in the lineman, and the receiver believing in the quarterback to make a good pass. So we need each other and depend on each other to be great.</t>
   </si>
   <si>
-    <t>318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
+    <t>14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
   </si>
   <si>
     <t>conc</t>
@@ -1152,64 +1152,64 @@
     <t>ted and become an A hole. And an A jerk is a person that's not liked and when alone and not liked by others becomes lonely.</t>
   </si>
   <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
   </si>
   <si>
     <t>hen</t>
@@ -1218,67 +1218,67 @@
     <t>u do something for other people before you try to please yourself, not only does it help them but something good will also come back to you helping you better yourself.</t>
   </si>
   <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
   </si>
   <si>
     <t>about our selves.</t>
   </si>
   <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
   </si>
   <si>
     <t>rpha</t>
@@ -1290,7 +1290,7 @@
     <t>ge, a school, etc</t>
   </si>
   <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
   </si>
   <si>
     <t>esnt</t>
@@ -1302,52 +1302,52 @@
     <t>ound appealing to you. Their are plenty of jobs that do just that.</t>
   </si>
   <si>
-    <t>318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
+    <t>14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33</t>
+  </si>
+  <si>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
   </si>
   <si>
     <t>ompl</t>
@@ -1359,13 +1359,13 @@
     <t>h that.</t>
   </si>
   <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>emem</t>
@@ -1374,13 +1374,13 @@
     <t>r, you MAY NOT know what they did &lt;br/&gt; (or) WHAT they gave-up to be there!</t>
   </si>
   <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
   </si>
   <si>
     <t>al</t>
@@ -1389,13 +1389,13 @@
     <t>one and not liked by others becomes lonely.</t>
   </si>
   <si>
-    <t>233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0,20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79</t>
   </si>
   <si>
     <t>e vi</t>
@@ -1407,52 +1407,52 @@
     <t>s.</t>
   </si>
   <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
-  </si>
-  <si>
-    <t>492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>383,0.33,11.36,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
+  </si>
+  <si>
+    <t>12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
+  </si>
+  <si>
+    <t>30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>26.33,4.85,1.16,0.86,1.35,0.33,11.36,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.1,0.19,0.06,0.06,0.09,0.04,0.21,0.0,0.0,8.79,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
   </si>
   <si>
     <t>f yo</t>
@@ -1464,37 +1464,37 @@
     <t>think about it we all want the world to be a "better place", and if you've noticed personal endeavors have gotten "us" into some not so happy predicaments.</t>
   </si>
   <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0,210,0.67,11.97,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0</t>
-  </si>
-  <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0</t>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33</t>
+  </si>
+  <si>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87,13.33,5.25,0.59,0.86,0.68,0.67,11.97,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.23,0.13,0.13,0.17,0.03,0.07,0.0,0.0,15.67</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
+  </si>
+  <si>
+    <t>14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43,21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65</t>
+  </si>
+  <si>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6</t>
   </si>
   <si>
     <t>ndiv</t>
@@ -1506,13 +1506,13 @@
     <t>uals around you, your merely taking up space.</t>
   </si>
   <si>
-    <t>246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
+    <t>23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
   </si>
   <si>
     <t>ther</t>
@@ -1521,7 +1521,7 @@
     <t>for help at some point. This world should be about others, not just me.</t>
   </si>
   <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,564,0.0,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,24.5,5.76,1.44,1.14,1.26,0.0,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.06,0.06,0.09,0.03,0.14,0.0,0.0,7.87</t>
   </si>
   <si>
     <t>peop</t>
@@ -1533,7 +1533,7 @@
     <t>unless they get some sort of satisfaction out of it, be it whether they community service hours, material rewards, fame, or just having the satisfaction of knowing that you have importance. So when helping out others, you make others feel good as well as yourself.</t>
   </si>
   <si>
-    <t>479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
+    <t>18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
   </si>
   <si>
     <t>ill</t>
@@ -1542,16 +1542,16 @@
     <t>so come back to you helping you better yourself.</t>
   </si>
   <si>
-    <t>312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2</t>
-  </si>
-  <si>
-    <t>487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
+    <t>19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
+  </si>
+  <si>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44</t>
+  </si>
+  <si>
+    <t>45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
   </si>
   <si>
     <t>per</t>
@@ -1563,13 +1563,13 @@
     <t>nal endeavors have gotten "us" into some not so happy predicaments.</t>
   </si>
   <si>
-    <t>351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4</t>
-  </si>
-  <si>
-    <t>318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0,487,0.5,13.59,0.0,0.1,2.5,0.0,0.0,0.0,0.3,0.4,0.4,0.07,0.0</t>
+    <t>32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64,16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89</t>
+  </si>
+  <si>
+    <t>14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96,45.0,5.41,1.32,0.57,2.31,0.5,13.59,0.0,0.1,2.5,0,0,0.0,0.0,0.0,0.16,0.11,0.2,0.01,0.01,0.1,0.01,0.0,0.0,0.0,7.6</t>
   </si>
   <si>
     <t>rs,</t>
@@ -1581,19 +1581,19 @@
     <t>t some other will help the community to make it safe and better.To teach them what they are capable of,to beleive in themselfs that they can do as the things wealthy people does.</t>
   </si>
   <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,395,0.33,14.98,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.07,0.2</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2</t>
-  </si>
-  <si>
-    <t>179,0.5,11.69,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,14.15,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,247,0.0,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,24.0,5.49,1.05,0.86,1.23,0.33,14.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.07,0.17,0.08,0.08,0.08,0.06,0.14,0.2,0.2,8.44</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42</t>
+  </si>
+  <si>
+    <t>17.0,5.26,0.5,0.57,0.87,0.5,11.69,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.21,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.88,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>13.43,5.56,1.38,2.0,0.69,0.43,14.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.11,0.23,0.06,0.06,0.1,0.0,0.0,0.0,0.0,10.57,11.5,5.37,0.67,1.14,0.59,0.0,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,11.0</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
   </si>
   <si>
     <t>end</t>
@@ -1605,16 +1605,16 @@
     <t>others for help at some point. This world should be about others, not just me.</t>
   </si>
   <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.45,0.45,0.0,0.0,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
+    <t>16.75,5.34,0.98,1.14,0.86,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.18,0.15,0.15,0.13,0.0,0.0,0.0,0.0,16.33,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
+  </si>
+  <si>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64</t>
+  </si>
+  <si>
+    <t>18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
   </si>
   <si>
     <t>terb</t>
@@ -1626,7 +1626,7 @@
     <t>k, quarterback believing in the lineman, and the receiver believing in the quarterback to make a good pass. So we need each other and depend on each other to be great.</t>
   </si>
   <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>n th</t>
@@ -1638,55 +1638,55 @@
     <t>r life.... &lt;br/&gt; Remember, you MAY NOT know what they did &lt;br/&gt; (or) WHAT they gave-up to be there!</t>
   </si>
   <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>351,1.0,14.23,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>324,0.0,12.21,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.07,0.0,209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0,596,1.0,14.62,0.0,0.04,1.0,0.0,0.01,0.0,0.05,0.15,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>356,0.67,16.0,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.07,0.0,225,0.0,11.93,0.0,0.04,1.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0,312,0.0,13.89,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,14.0,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.14,0.0,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>406,0.2,10.98,0.0,0.0,1.0,0.0,0.01,0.0,0.05,0.35,0.4,0.0,0.0,311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,492,0.0,10.7,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.65,0.65,0.07,0.0</t>
-  </si>
-  <si>
-    <t>308,0.0,15.73,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.14,0.2,233,0.5,12.28,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>316,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.4,0.0,0.0,488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>488,0.4,12.76,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.5,0.5,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,318,0.25,14.31,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>393,0.5,14.7,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.5,0.5,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71</t>
+  </si>
+  <si>
+    <t>32.5,5.4,0.95,0.57,1.67,1.0,14.23,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.26,0.08,0.08,0.12,0.0,0.0,0.0,0.0,14.64,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>21.33,5.06,0.94,0.86,1.09,0.0,12.21,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.22,0.09,0.09,0.16,0.02,0.0,0.0,0.0,7.65,20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58</t>
+  </si>
+  <si>
+    <t>13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36,36.67,5.42,1.61,0.86,1.88,1.0,14.62,0.0,0.04,1.0,1,0,0.0,0.01,11.11,0.15,0.11,0.15,0.02,0.02,0.05,0.01,0.0,0.0,0.0,5.96</t>
+  </si>
+  <si>
+    <t>20.33,5.84,0.89,0.86,1.04,0.67,16.0,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.2,0.07,0.07,0.1,0.0,0.0,0.0,0.0,16.08,46.0,4.89,0.67,0.29,2.36,0.0,11.93,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,10.8</t>
+  </si>
+  <si>
+    <t>29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79,19.33,5.38,0.85,0.86,0.99,0.0,13.89,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.29,0.05,0.05,0.14,0.0,0.0,0.0,0.0,17.18</t>
+  </si>
+  <si>
+    <t>17.2,5.7,1.26,1.43,0.88,0.0,14.0,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.2,0.06,0.06,0.06,0.03,0.07,0.0,0.0,6.6,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82</t>
+  </si>
+  <si>
+    <t>16.2,5.01,1.19,1.43,0.83,0.2,10.98,0.0,0.0,1.0,3,0,0.0,0.01,0.0,0.06,0.07,0.22,0.1,0.1,0.1,0.02,0.0,0.0,0.0,12.6,20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55</t>
+  </si>
+  <si>
+    <t>14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43,12.25,5.02,1.44,2.29,0.63,0.0,10.7,0.0,0.01,1.0,0,0,0.0,0.0,5.56,0.13,0.07,0.17,0.06,0.06,0.15,0.0,0.0,0.0,0.0,12.95</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.76,1.14,0.67,0.0,15.73,0.0,0.06,1.0,0,0,0.0,0.0,16.67,0.27,0.15,0.19,0.0,0.0,0.06,0.02,0.0,0.2,0.2,7.42,22.5,5.18,0.66,0.57,1.15,0.5,12.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.22,0.07,0.07,0.09,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>30.0,5.27,0.88,0.57,1.54,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.23,0.08,0.08,0.13,0.05,0.07,0.0,0.0,14.71,18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77</t>
+  </si>
+  <si>
+    <t>18.2,5.36,1.33,1.43,0.93,0.4,12.76,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.14,0.11,0.16,0.05,0.05,0.12,0.02,0.07,0.0,0.0,9.77,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4,14.25,5.58,0.83,1.14,0.73,0.25,14.31,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.16,0.11,0.14,0.05,0.05,0.0,0.0,0.0,0.0,0.0,14.43</t>
+  </si>
+  <si>
+    <t>17.5,5.61,1.03,1.14,0.9,0.5,14.7,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.17,0.06,0.06,0.1,0.03,0.07,0.0,0.0,10.71,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
   </si>
   <si>
     <t>life</t>
@@ -1698,19 +1698,19 @@
     <t>.. &lt;br/&gt; Remember, you MAY NOT know what they did &lt;br/&gt; (or) WHAT they gave-up to be there!</t>
   </si>
   <si>
-    <t>209,0.5,12.56,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.1,0.0,0.0,245,0.33,16.45,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>456,0.4,13.94,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.4,0.35,0.21,0.4,192,1.0,13.59,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>479,0.4,12.8,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.4,0.4,0.0,0.0,535,0.0,14.85,0.0,0.07,2.0,0.0,0.03,0.0,0.2,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>311,1.33,11.79,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,246,1.5,13.47,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.0,14.7,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,477,1.0,14.94,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.5,0.5,0.0,0.0</t>
+    <t>20.0,5.22,0.59,0.57,1.03,0.5,12.56,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.03,0.13,0.0,0.0,0.13,0.03,0.07,0.0,0.0,2.4,13.67,5.98,0.6,0.86,0.7,0.33,16.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.05,0.05,0.02,0.0,0.0,0.0,0.0,18.36</t>
+  </si>
+  <si>
+    <t>16.6,5.49,1.22,1.43,0.85,0.4,13.94,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.23,0.07,0.07,0.07,0.01,0.0,0.4,0.4,10.89,18.0,5.33,0.53,0.57,0.92,1.0,13.59,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.14,0.22,0.22,0.0,0.0,0.14,0.0,0.0,0.0,0.0,18.4</t>
+  </si>
+  <si>
+    <t>18.0,5.32,1.32,1.43,0.92,0.4,12.8,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.1,0.22,0.03,0.03,0.07,0.0,0.0,0.0,0.0,7.58,22.75,5.88,1.33,1.14,1.17,0.0,14.85,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.2,0.09,0.2,0.02,0.02,0.05,0.02,0.07,0.0,0.0,5.44</t>
+  </si>
+  <si>
+    <t>20.67,5.02,0.91,0.86,1.06,1.33,11.79,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.08,0.19,0.11,0.11,0.11,0.02,0.0,0.0,0.0,10.55,23.5,5.23,0.69,0.57,1.2,1.5,13.47,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.13,0.23,0.09,0.09,0.06,0.0,0.0,0.0,0.0,16.91</t>
+  </si>
+  <si>
+    <t>14.5,5.6,0.85,1.14,0.74,0.0,14.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.07,0.22,0.09,0.09,0.1,0.0,0.0,0.0,0.0,15.82,29.0,5.48,1.27,0.86,1.49,1.0,14.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.06,0.1,0.21,0.08,0.08,0.13,0.0,0.0,0.0,0.0,15.79</t>
   </si>
 </sst>
 </file>
